--- a/__io資料.xlsx
+++ b/__io資料.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pycv5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD7EA8B-96F6-4FE2-9824-A24EC0B0797D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A0079-4F6A-4461-9A56-C2C24C71F49A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8B507A79-58A8-4C9F-9D55-CBFC28FFEFA9}"/>
+    <workbookView xWindow="19080" yWindow="-795" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8B507A79-58A8-4C9F-9D55-CBFC28FFEFA9}"/>
   </bookViews>
   <sheets>
     <sheet name="qr" sheetId="4" r:id="rId1"/>
     <sheet name="A (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="V" sheetId="2" r:id="rId3"/>
-    <sheet name="A" sheetId="1" r:id="rId4"/>
+    <sheet name="xV" sheetId="2" r:id="rId3"/>
+    <sheet name="xA" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
   <si>
     <t>adintool</t>
     <phoneticPr fontId="1"/>
@@ -635,6 +635,153 @@
   </si>
   <si>
     <t>https://excel-excel.com/tipsctr/vbac_42.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coreSTT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coreTTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>txtreader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイミング管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main_speech.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main_vision.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controlv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overlay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main_vision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>txt2img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api_vision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cvreader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cvdetect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→overlay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>txtreader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google,azure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main_desktop.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controld</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coreCV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recorder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vin2jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yolo物体認識(keras実装)</t>
+    <rPh sb="4" eb="6">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yolo_keras</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像合成（識別結果）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yolo物体認識(torch実装)</t>
+    <rPh sb="4" eb="6">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yolo_torch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デスクトップ処理モジュール群</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>グン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -859,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,23 +1106,35 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,10 +1155,10 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="9313"/>
-  <ax:ocxPr ax:name="_cy" ax:value="9102"/>
+  <ax:ocxPr ax:name="_cx" ax:value="6350"/>
+  <ax:ocxPr ax:name="_cy" ax:value="6191"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="3"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1035,7 +1194,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE56E4C-1EC4-442F-8006-720A73776519}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1375,14 +1534,14 @@
   </sheetPr>
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="256" width="9" style="38" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="38"/>
+    <col min="1" max="256" width="9" style="36" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
@@ -1391,12 +1550,12 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1441,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CB3A30-A939-4F0E-A958-A123C83F7537}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1464,36 +1623,51 @@
     <col min="14" max="14" width="15.25" style="19" customWidth="1"/>
     <col min="15" max="16" width="15.25" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="19"/>
-    <col min="18" max="18" width="2.625" style="26" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="19"/>
+    <col min="18" max="19" width="2.625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="35" customWidth="1"/>
+    <col min="21" max="22" width="15.25" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9" style="35"/>
+    <col min="24" max="24" width="2.625" style="33" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" x14ac:dyDescent="0.4">
-      <c r="C1" s="33" t="s">
+    <row r="1" spans="1:24" ht="24" x14ac:dyDescent="0.4">
+      <c r="C1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="N1" s="34" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="N1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-    </row>
-    <row r="3" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="N3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="36"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="T1" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+    </row>
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="N3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="38"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T3" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="38"/>
+      <c r="V3" s="34"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="9"/>
@@ -1509,8 +1683,13 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="24"/>
-    </row>
-    <row r="5" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="24"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="11" t="s">
@@ -1536,8 +1715,15 @@
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="27"/>
-    </row>
-    <row r="6" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S5" s="25"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="D6" s="11"/>
@@ -1553,13 +1739,19 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="27"/>
-    </row>
-    <row r="7" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S6" s="25"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="27"/>
+    </row>
+    <row r="7" spans="1:24" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="33"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="35"/>
+      <c r="C7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="37"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1567,46 +1759,60 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="27"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="26"/>
+      <c r="N7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="33" t="s">
+        <v>90</v>
+      </c>
       <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R7" s="33"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="37"/>
+      <c r="V7" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" s="27"/>
+      <c r="X7" s="33"/>
+    </row>
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="33"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="27"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="26"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R8" s="33"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="33"/>
+    </row>
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1615,18 +1821,26 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="27"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="26"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="27"/>
-    </row>
-    <row r="10" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R9" s="33"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="33"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="25"/>
-      <c r="C10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="37"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1635,216 +1849,294 @@
       <c r="J10" s="11"/>
       <c r="K10" s="27"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="26"/>
+      <c r="N10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="Q10" s="27"/>
-    </row>
-    <row r="11" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S10" s="25"/>
+      <c r="T10" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="37"/>
+      <c r="V10" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" s="27"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="27"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="26"/>
+      <c r="N11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="Q11" s="27"/>
-    </row>
-    <row r="12" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S11" s="25"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="27"/>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="27"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S12" s="25"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="27"/>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="37"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="27"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="26"/>
+      <c r="N13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="Q13" s="27"/>
-    </row>
-    <row r="14" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S13" s="25"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="27"/>
+    </row>
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="27"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="26"/>
+      <c r="N14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="37"/>
+      <c r="P14" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="Q14" s="27"/>
-    </row>
-    <row r="15" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S14" s="25"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="27"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="25"/>
-      <c r="C15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="35"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="K15" s="27"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="27"/>
-    </row>
-    <row r="16" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S15" s="25"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="27"/>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>22</v>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="K16" s="27"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="26"/>
+      <c r="N16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="37"/>
+      <c r="P16" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="Q16" s="27"/>
-    </row>
-    <row r="17" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S16" s="25"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="27"/>
+    </row>
+    <row r="17" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="K17" s="27"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="26"/>
+      <c r="N17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="Q17" s="27"/>
-    </row>
-    <row r="18" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S17" s="25"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="27"/>
+    </row>
+    <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="37"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="27"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S18" s="25"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="27"/>
+    </row>
+    <row r="19" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="K19" s="27"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="26"/>
+      <c r="N19" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="26" t="s">
+        <v>97</v>
+      </c>
       <c r="Q19" s="27"/>
-    </row>
-    <row r="20" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S19" s="25"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="27"/>
+    </row>
+    <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="25"/>
-      <c r="C20" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="35"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1853,389 +2145,482 @@
       <c r="J20" s="11"/>
       <c r="K20" s="27"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="26"/>
+      <c r="N20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S20" s="25"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="27"/>
+    </row>
+    <row r="21" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="27"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S21" s="25"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="27"/>
+    </row>
+    <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="27"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="26"/>
+      <c r="N22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="37"/>
+      <c r="P22" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S22" s="25"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="27"/>
+    </row>
+    <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="37"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="27"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="26"/>
+      <c r="N23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="P23" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S23" s="25"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="27"/>
+    </row>
+    <row r="24" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="17" t="s">
-        <v>12</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K24" s="27"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="35"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="27"/>
-    </row>
-    <row r="25" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S24" s="25"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="27"/>
+    </row>
+    <row r="25" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>13</v>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="K25" s="27"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="26"/>
+      <c r="N25" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="42" t="s">
+        <v>108</v>
+      </c>
       <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S25" s="25"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="27"/>
+    </row>
+    <row r="26" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="27"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="26"/>
+      <c r="N26" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="O26" s="37"/>
+      <c r="P26" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="Q26" s="27"/>
-    </row>
-    <row r="27" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S26" s="25"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="27"/>
+    </row>
+    <row r="27" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="K27" s="27"/>
       <c r="M27" s="25"/>
-      <c r="N27" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="27"/>
-    </row>
-    <row r="28" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S27" s="25"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="27"/>
+    </row>
+    <row r="28" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="25"/>
-      <c r="C28" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="35"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="K28" s="27"/>
       <c r="M28" s="25"/>
-      <c r="N28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="26"/>
+      <c r="N28" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="42" t="s">
+        <v>111</v>
+      </c>
       <c r="Q28" s="27"/>
-    </row>
-    <row r="29" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S28" s="25"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="27"/>
+    </row>
+    <row r="29" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K29" s="27"/>
       <c r="M29" s="25"/>
-      <c r="N29" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="26"/>
+      <c r="N29" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="O29" s="37"/>
+      <c r="P29" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="Q29" s="27"/>
-    </row>
-    <row r="30" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S29" s="25"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="27"/>
+    </row>
+    <row r="30" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="27"/>
       <c r="M30" s="25"/>
-      <c r="N30" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
       <c r="Q30" s="27"/>
-    </row>
-    <row r="31" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S30" s="25"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="27"/>
+    </row>
+    <row r="31" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="37"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="27"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="26"/>
+      <c r="N31" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="37"/>
+      <c r="P31" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="Q31" s="27"/>
-    </row>
-    <row r="32" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S31" s="25"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="27"/>
+    </row>
+    <row r="32" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>15</v>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="K32" s="27"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="26"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="Q32" s="27"/>
-    </row>
-    <row r="33" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S32" s="25"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="27"/>
+    </row>
+    <row r="33" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="K33" s="27"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O33" s="35"/>
-      <c r="P33" s="26"/>
+      <c r="N33" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="37"/>
+      <c r="P33" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="Q33" s="27"/>
-    </row>
-    <row r="34" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S33" s="25"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="27"/>
+    </row>
+    <row r="34" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="25"/>
-      <c r="C34" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="35"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="27"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="27"/>
-    </row>
-    <row r="35" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S34" s="25"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="27"/>
+    </row>
+    <row r="35" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="K35" s="27"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" s="35"/>
-      <c r="P35" s="26"/>
+      <c r="N35" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="37"/>
+      <c r="P35" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="Q35" s="27"/>
-    </row>
-    <row r="36" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S35" s="25"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="27"/>
+    </row>
+    <row r="36" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="27"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="26"/>
+      <c r="N36" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="37"/>
+      <c r="P36" s="33" t="s">
+        <v>100</v>
+      </c>
       <c r="Q36" s="27"/>
-    </row>
-    <row r="37" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S36" s="25"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="27"/>
+    </row>
+    <row r="37" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="37"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -2244,62 +2629,91 @@
       <c r="J37" s="11"/>
       <c r="K37" s="27"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
+      <c r="N37" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" s="37"/>
+      <c r="P37" s="33" t="s">
+        <v>100</v>
+      </c>
       <c r="Q37" s="27"/>
-    </row>
-    <row r="38" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S37" s="25"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="27"/>
+    </row>
+    <row r="38" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="25"/>
-      <c r="C38" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="K38" s="27"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="N38" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="37"/>
+      <c r="P38" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="Q38" s="27"/>
-    </row>
-    <row r="39" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S38" s="25"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="27"/>
+    </row>
+    <row r="39" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
-      <c r="D39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>24</v>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="K39" s="27"/>
       <c r="M39" s="25"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
+      <c r="N39" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" s="37"/>
+      <c r="P39" s="33" t="s">
+        <v>99</v>
+      </c>
       <c r="Q39" s="27"/>
-    </row>
-    <row r="40" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S39" s="25"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="27"/>
+    </row>
+    <row r="40" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="11"/>
@@ -2315,13 +2729,18 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="27"/>
-    </row>
-    <row r="41" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S40" s="25"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="27"/>
+    </row>
+    <row r="41" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="25"/>
-      <c r="C41" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="35"/>
+      <c r="C41" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="37"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -2330,22 +2749,31 @@
       <c r="J41" s="11"/>
       <c r="K41" s="27"/>
       <c r="M41" s="25"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="N41" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" s="37"/>
+      <c r="P41" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="Q41" s="27"/>
-    </row>
-    <row r="42" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S41" s="25"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="27"/>
+    </row>
+    <row r="42" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>17</v>
@@ -2361,12 +2789,17 @@
       </c>
       <c r="K42" s="27"/>
       <c r="M42" s="25"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="26"/>
       <c r="Q42" s="27"/>
-    </row>
-    <row r="43" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S42" s="25"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="27"/>
+    </row>
+    <row r="43" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="11"/>
@@ -2378,17 +2811,26 @@
       <c r="J43" s="11"/>
       <c r="K43" s="27"/>
       <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="N43" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="37"/>
+      <c r="P43" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="Q43" s="27"/>
-    </row>
-    <row r="44" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S43" s="25"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="27"/>
+    </row>
+    <row r="44" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="25"/>
-      <c r="C44" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="35"/>
+      <c r="C44" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="37"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -2397,118 +2839,265 @@
       <c r="J44" s="11"/>
       <c r="K44" s="27"/>
       <c r="M44" s="25"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="26"/>
       <c r="Q44" s="27"/>
-    </row>
-    <row r="45" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S44" s="25"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="27"/>
+    </row>
+    <row r="45" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="18" t="s">
-        <v>22</v>
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="I45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K45" s="27"/>
       <c r="M45" s="25"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="N45" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="O45" s="37"/>
+      <c r="P45" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="Q45" s="27"/>
-    </row>
-    <row r="46" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S45" s="25"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="27"/>
+    </row>
+    <row r="46" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="27"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="26"/>
       <c r="Q46" s="27"/>
-    </row>
-    <row r="47" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="30"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="30"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="27"/>
+    </row>
+    <row r="47" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="25"/>
+      <c r="C47" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="27"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="27"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="27"/>
+    </row>
+    <row r="48" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="27"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="27"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="27"/>
+    </row>
+    <row r="49" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="27"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="27"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="27"/>
+    </row>
+    <row r="50" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="30"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="C3:D3"/>
+  <mergeCells count="84">
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N3:O3"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N42:O42"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N41:O41"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
@@ -2524,7 +3113,7 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2543,10 +3132,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
@@ -2563,177 +3152,176 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="41"/>
     </row>
     <row r="10" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
     </row>
     <row r="21" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="37"/>
+      <c r="C34" s="41"/>
     </row>
     <row r="35" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -2746,15 +3334,16 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,7 +3356,7 @@
   <dimension ref="B2:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2787,10 +3376,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
@@ -2810,10 +3399,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="41"/>
       <c r="K6" s="19" t="s">
         <v>61</v>
       </c>
@@ -2839,10 +3428,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="41"/>
       <c r="K9" s="19" t="s">
         <v>79</v>
       </c>
@@ -2897,10 +3486,10 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="9"/>
@@ -2929,10 +3518,10 @@
       <c r="I17" s="11"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="3" t="s">
@@ -3041,10 +3630,10 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
@@ -3115,10 +3704,10 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="37"/>
+      <c r="C34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
@@ -3157,10 +3746,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="3" t="s">
@@ -3194,10 +3783,10 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
@@ -3231,10 +3820,10 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="41"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="11"/>

--- a/__io資料.xlsx
+++ b/__io資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A0079-4F6A-4461-9A56-C2C24C71F49A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F1D51-B4D6-4050-9C10-6F442CC71FAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-795" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8B507A79-58A8-4C9F-9D55-CBFC28FFEFA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11025" xr2:uid="{8B507A79-58A8-4C9F-9D55-CBFC28FFEFA9}"/>
   </bookViews>
   <sheets>
     <sheet name="qr" sheetId="4" r:id="rId1"/>
@@ -620,10 +620,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://a-zip.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参考記事</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
@@ -782,6 +778,10 @@
     <rPh sb="13" eb="14">
       <t>グン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://333022.jp/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -789,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +838,15 @@
       <name val="HG丸ｺﾞｼｯｸM-PRO"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1001,12 +1010,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,25 +1131,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1155,15 +1171,15 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="6350"/>
-  <ax:ocxPr ax:name="_cy" ax:value="6191"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="3"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="https://a-zip.co.jp"/>
+  <ax:ocxPr ax:name="Value" ax:value="http://333022.jp/"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1229,6 +1245,128 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BF0479-3C39-4902-8BE0-8B3518939234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="981075" y="5810250"/>
+          <a:ext cx="2771775" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC1C5B0-36FB-46E1-8FEE-AA959799146E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="12839700"/>
+          <a:ext cx="2809875" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1534,8 +1672,8 @@
   </sheetPr>
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -1545,34 +1683,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>80</v>
+      <c r="A1" s="43" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0D08001D-D678-4524-9C6E-A639FD66C51A}"/>
+  </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="A1" r:id="rId5">
+        <control shapeId="1025" r:id="rId5" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="A1" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1591,7 +1732,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="1025" r:id="rId5" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1602,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CB3A30-A939-4F0E-A958-A123C83F7537}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T14" sqref="T14:U14"/>
     </sheetView>
   </sheetViews>
@@ -1632,12 +1773,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="N1" s="40" t="s">
         <v>59</v>
       </c>
@@ -1645,26 +1786,26 @@
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
       <c r="T1" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="N3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="1"/>
-      <c r="T3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="U3" s="38"/>
+      <c r="T3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="39"/>
       <c r="V3" s="34"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1748,10 +1889,10 @@
     <row r="7" spans="1:24" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="33"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="37"/>
+      <c r="C7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="38"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1761,22 +1902,22 @@
       <c r="K7" s="27"/>
       <c r="L7" s="33"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="37"/>
+      <c r="N7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="38"/>
       <c r="P7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="27"/>
       <c r="R7" s="33"/>
       <c r="S7" s="25"/>
-      <c r="T7" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="37"/>
+      <c r="T7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="38"/>
       <c r="V7" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W7" s="27"/>
       <c r="X7" s="33"/>
@@ -1788,7 +1929,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="6"/>
@@ -1797,14 +1938,14 @@
       <c r="K8" s="27"/>
       <c r="L8" s="33"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="33"/>
       <c r="S8" s="25"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
       <c r="V8" s="33"/>
       <c r="W8" s="27"/>
       <c r="X8" s="33"/>
@@ -1823,24 +1964,24 @@
       <c r="K9" s="27"/>
       <c r="L9" s="33"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="33"/>
       <c r="S9" s="25"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="33"/>
       <c r="W9" s="27"/>
       <c r="X9" s="33"/>
     </row>
     <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="25"/>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1849,21 +1990,21 @@
       <c r="J10" s="11"/>
       <c r="K10" s="27"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="37"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="S10" s="25"/>
-      <c r="T10" s="37" t="s">
+      <c r="T10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="U10" s="38"/>
+      <c r="V10" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="W10" s="27"/>
     </row>
@@ -1889,17 +2030,17 @@
       <c r="J11" s="11"/>
       <c r="K11" s="27"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="37"/>
+      <c r="O11" s="38"/>
       <c r="P11" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="27"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
       <c r="V11" s="33"/>
       <c r="W11" s="27"/>
     </row>
@@ -1915,22 +2056,22 @@
       <c r="J12" s="11"/>
       <c r="K12" s="27"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="27"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
       <c r="V12" s="33"/>
       <c r="W12" s="27"/>
     </row>
     <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="25"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1939,17 +2080,17 @@
       <c r="J13" s="11"/>
       <c r="K13" s="27"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="37"/>
+      <c r="O13" s="38"/>
       <c r="P13" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
       <c r="V13" s="33"/>
       <c r="W13" s="27"/>
     </row>
@@ -1975,17 +2116,17 @@
       <c r="J14" s="11"/>
       <c r="K14" s="27"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="37"/>
+      <c r="O14" s="38"/>
       <c r="P14" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
       <c r="V14" s="33"/>
       <c r="W14" s="27"/>
     </row>
@@ -2007,13 +2148,13 @@
       </c>
       <c r="K15" s="27"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="27"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
       <c r="V15" s="33"/>
       <c r="W15" s="27"/>
     </row>
@@ -2033,17 +2174,17 @@
       </c>
       <c r="K16" s="27"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="37"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
       <c r="V16" s="33"/>
       <c r="W16" s="27"/>
     </row>
@@ -2063,26 +2204,26 @@
       </c>
       <c r="K17" s="27"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="37"/>
+      <c r="O17" s="38"/>
       <c r="P17" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="27"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
       <c r="V17" s="33"/>
       <c r="W17" s="27"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="25"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -2091,13 +2232,13 @@
       <c r="J18" s="9"/>
       <c r="K18" s="27"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="27"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
       <c r="V18" s="33"/>
       <c r="W18" s="27"/>
     </row>
@@ -2119,17 +2260,17 @@
       </c>
       <c r="K19" s="27"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="37"/>
+      <c r="O19" s="38"/>
       <c r="P19" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="27"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
       <c r="V19" s="33"/>
       <c r="W19" s="27"/>
     </row>
@@ -2145,17 +2286,17 @@
       <c r="J20" s="11"/>
       <c r="K20" s="27"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="37"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="27"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
       <c r="V20" s="33"/>
       <c r="W20" s="27"/>
     </row>
@@ -2171,13 +2312,13 @@
       <c r="J21" s="11"/>
       <c r="K21" s="27"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="27"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
       <c r="V21" s="33"/>
       <c r="W21" s="27"/>
     </row>
@@ -2193,26 +2334,26 @@
       <c r="J22" s="11"/>
       <c r="K22" s="27"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="37"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="27"/>
       <c r="S22" s="25"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
       <c r="V22" s="33"/>
       <c r="W22" s="27"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="25"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2221,17 +2362,17 @@
       <c r="J23" s="11"/>
       <c r="K23" s="27"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="37"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="27"/>
       <c r="S23" s="25"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
       <c r="V23" s="33"/>
       <c r="W23" s="27"/>
     </row>
@@ -2245,7 +2386,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>17</v>
@@ -2261,13 +2402,13 @@
       </c>
       <c r="K24" s="27"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="27"/>
       <c r="S24" s="25"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
       <c r="V24" s="33"/>
       <c r="W24" s="27"/>
     </row>
@@ -2288,16 +2429,16 @@
       <c r="K25" s="27"/>
       <c r="M25" s="25"/>
       <c r="N25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="37" t="s">
         <v>107</v>
-      </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="42" t="s">
-        <v>108</v>
       </c>
       <c r="Q25" s="27"/>
       <c r="S25" s="25"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
       <c r="V25" s="33"/>
       <c r="W25" s="27"/>
     </row>
@@ -2315,17 +2456,17 @@
       <c r="J26" s="9"/>
       <c r="K26" s="27"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="O26" s="37"/>
+      <c r="N26" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" s="38"/>
       <c r="P26" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="S26" s="25"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
       <c r="V26" s="33"/>
       <c r="W26" s="27"/>
     </row>
@@ -2352,8 +2493,8 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="27"/>
       <c r="S27" s="25"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
       <c r="V27" s="33"/>
       <c r="W27" s="27"/>
     </row>
@@ -2374,16 +2515,16 @@
       <c r="K28" s="27"/>
       <c r="M28" s="25"/>
       <c r="N28" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="42" t="s">
-        <v>111</v>
       </c>
       <c r="Q28" s="27"/>
       <c r="S28" s="25"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
       <c r="V28" s="33"/>
       <c r="W28" s="27"/>
     </row>
@@ -2403,17 +2544,17 @@
       </c>
       <c r="K29" s="27"/>
       <c r="M29" s="25"/>
-      <c r="N29" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="37"/>
+      <c r="N29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="38"/>
       <c r="P29" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q29" s="27"/>
       <c r="S29" s="25"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
       <c r="V29" s="33"/>
       <c r="W29" s="27"/>
     </row>
@@ -2434,17 +2575,17 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="27"/>
       <c r="S30" s="25"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
       <c r="V30" s="33"/>
       <c r="W30" s="27"/>
     </row>
     <row r="31" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="25"/>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -2453,17 +2594,17 @@
       <c r="J31" s="11"/>
       <c r="K31" s="27"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="37" t="s">
+      <c r="N31" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="37"/>
+      <c r="O31" s="38"/>
       <c r="P31" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q31" s="27"/>
       <c r="S31" s="25"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
       <c r="V31" s="33"/>
       <c r="W31" s="27"/>
     </row>
@@ -2477,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>17</v>
@@ -2493,15 +2634,15 @@
       </c>
       <c r="K32" s="27"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
       <c r="P32" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q32" s="27"/>
       <c r="S32" s="25"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
       <c r="V32" s="33"/>
       <c r="W32" s="27"/>
     </row>
@@ -2521,17 +2662,17 @@
       </c>
       <c r="K33" s="27"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="37"/>
+      <c r="O33" s="38"/>
       <c r="P33" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="27"/>
       <c r="S33" s="25"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
       <c r="V33" s="33"/>
       <c r="W33" s="27"/>
     </row>
@@ -2547,13 +2688,13 @@
       <c r="J34" s="9"/>
       <c r="K34" s="27"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="27"/>
       <c r="S34" s="25"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
       <c r="V34" s="33"/>
       <c r="W34" s="27"/>
     </row>
@@ -2575,17 +2716,17 @@
       </c>
       <c r="K35" s="27"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="37" t="s">
+      <c r="N35" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="O35" s="37"/>
+      <c r="O35" s="38"/>
       <c r="P35" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="27"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
       <c r="V35" s="33"/>
       <c r="W35" s="27"/>
     </row>
@@ -2601,26 +2742,26 @@
       <c r="J36" s="11"/>
       <c r="K36" s="27"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="37" t="s">
+      <c r="N36" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="37"/>
+      <c r="O36" s="38"/>
       <c r="P36" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q36" s="27"/>
       <c r="S36" s="25"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
       <c r="V36" s="33"/>
       <c r="W36" s="27"/>
     </row>
     <row r="37" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="25"/>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="37"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -2629,17 +2770,17 @@
       <c r="J37" s="11"/>
       <c r="K37" s="27"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="37" t="s">
+      <c r="N37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="O37" s="37"/>
+      <c r="O37" s="38"/>
       <c r="P37" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q37" s="27"/>
       <c r="S37" s="25"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
       <c r="V37" s="33"/>
       <c r="W37" s="27"/>
     </row>
@@ -2669,17 +2810,17 @@
       </c>
       <c r="K38" s="27"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="37" t="s">
+      <c r="N38" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O38" s="37"/>
+      <c r="O38" s="38"/>
       <c r="P38" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q38" s="27"/>
       <c r="S38" s="25"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
       <c r="V38" s="33"/>
       <c r="W38" s="27"/>
     </row>
@@ -2699,17 +2840,17 @@
       </c>
       <c r="K39" s="27"/>
       <c r="M39" s="25"/>
-      <c r="N39" s="37" t="s">
+      <c r="N39" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="37"/>
+      <c r="O39" s="38"/>
       <c r="P39" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q39" s="27"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
       <c r="V39" s="33"/>
       <c r="W39" s="27"/>
     </row>
@@ -2737,10 +2878,10 @@
     </row>
     <row r="41" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="25"/>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -2749,12 +2890,12 @@
       <c r="J41" s="11"/>
       <c r="K41" s="27"/>
       <c r="M41" s="25"/>
-      <c r="N41" s="37" t="s">
+      <c r="N41" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="O41" s="37"/>
+      <c r="O41" s="38"/>
       <c r="P41" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q41" s="27"/>
       <c r="S41" s="25"/>
@@ -2773,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>17</v>
@@ -2789,8 +2930,8 @@
       </c>
       <c r="K42" s="27"/>
       <c r="M42" s="25"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
       <c r="P42" s="26"/>
       <c r="Q42" s="27"/>
       <c r="S42" s="25"/>
@@ -2811,12 +2952,12 @@
       <c r="J43" s="11"/>
       <c r="K43" s="27"/>
       <c r="M43" s="25"/>
-      <c r="N43" s="37" t="s">
+      <c r="N43" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O43" s="37"/>
+      <c r="O43" s="38"/>
       <c r="P43" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q43" s="27"/>
       <c r="S43" s="25"/>
@@ -2827,10 +2968,10 @@
     </row>
     <row r="44" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="25"/>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="37"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -2839,8 +2980,8 @@
       <c r="J44" s="11"/>
       <c r="K44" s="27"/>
       <c r="M44" s="25"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
       <c r="P44" s="26"/>
       <c r="Q44" s="27"/>
       <c r="S44" s="25"/>
@@ -2859,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>17</v>
@@ -2875,12 +3016,12 @@
       </c>
       <c r="K45" s="27"/>
       <c r="M45" s="25"/>
-      <c r="N45" s="37" t="s">
+      <c r="N45" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O45" s="37"/>
+      <c r="O45" s="38"/>
       <c r="P45" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q45" s="27"/>
       <c r="S45" s="25"/>
@@ -2901,8 +3042,8 @@
       <c r="J46" s="11"/>
       <c r="K46" s="27"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
       <c r="P46" s="26"/>
       <c r="Q46" s="27"/>
       <c r="S46" s="25"/>
@@ -2913,10 +3054,10 @@
     </row>
     <row r="47" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="25"/>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="37"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -3017,49 +3158,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C41:D41"/>
@@ -3076,31 +3195,53 @@
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3132,10 +3273,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
@@ -3152,176 +3293,177 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="42"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="42"/>
     </row>
     <row r="11" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
     </row>
     <row r="15" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="42"/>
     </row>
     <row r="17" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="41"/>
+      <c r="C30" s="42"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="42"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="41"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -3334,16 +3476,15 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3376,10 +3517,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
@@ -3399,10 +3540,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="K6" s="19" t="s">
         <v>61</v>
       </c>
@@ -3428,10 +3569,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="42"/>
       <c r="K9" s="19" t="s">
         <v>79</v>
       </c>
@@ -3486,10 +3627,10 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="9"/>
@@ -3518,10 +3659,10 @@
       <c r="I17" s="11"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="3" t="s">
@@ -3630,10 +3771,10 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
@@ -3704,10 +3845,10 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="41"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
@@ -3746,10 +3887,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="41"/>
+      <c r="C38" s="42"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="3" t="s">
@@ -3783,10 +3924,10 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="41"/>
+      <c r="C41" s="42"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
@@ -3820,10 +3961,10 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="41"/>
+      <c r="C44" s="42"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="11"/>
